--- a/documents/CatQuestions.xlsx
+++ b/documents/CatQuestions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="340" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="8300" yWindow="2020" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Questions</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Favourite cat food brand?</t>
   </si>
   <si>
-    <t>Favourite cat food toy?</t>
-  </si>
-  <si>
     <t>Is your cat microchipped?</t>
   </si>
   <si>
@@ -67,13 +64,46 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>["Canidae Pet Foods", "Meow Mix", "IAMS", "Fancy Feast", "Friskies", "Others"]</t>
+  </si>
+  <si>
+    <t>[300, 50, 20, 70, 40, 10]</t>
+  </si>
+  <si>
+    <t>Favourite cat toy?</t>
+  </si>
+  <si>
+    <t>["Bergan Star Chaser Turbo Scratcher", "HEXBUG Mouse Cat Toy", "SPOT Sponge Soccer Balls", "46 Inch Mega Kit Cat Claw Perch", "Catit Design Senses Play Circuit", "Others"]</t>
+  </si>
+  <si>
+    <t>[400, 250, 200, 150, 100, 400]</t>
+  </si>
+  <si>
+    <t>["Yes", "No"]</t>
+  </si>
+  <si>
+    <t>[400, 250]</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>[60, 400, 20, 100, 30]</t>
+  </si>
+  <si>
+    <t>["One", "Two", "Three", "Four-Five", "Six+"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +115,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,10 +174,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,8 +214,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="29">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,528 +576,799 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="52.33203125" customWidth="1"/>
     <col min="2" max="2" width="57.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+    <col min="6" max="6" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/CatQuestions.xlsx
+++ b/documents/CatQuestions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="2020" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5380" yWindow="2440" windowWidth="32680" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Questions</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>["One", "Two", "Three", "Four-Five", "Six+"]</t>
+  </si>
+  <si>
+    <t>Answers for ChartJS</t>
+  </si>
+  <si>
+    <t>Database Format</t>
+  </si>
+  <si>
+    <t>1, Canidae Pet Foods, Meow Mix, IAMS, Fancy Feast, Friskies, Others, Favourite cat food brand?</t>
+  </si>
+  <si>
+    <t>2, HEXBUG Mouse Cat Toy, SPOT Sponge Soccer Balls, 46 Inch Mega Kit Caw Claw Perch, Catit Design Senses Play Circuit, Others, -, Favourite cat toy?</t>
+  </si>
+  <si>
+    <t>3, Yes, No, -, -, -, -, Is your cat microchipped?</t>
+  </si>
+  <si>
+    <t>4, One, Two, Three, Four-Five, Six+, -, How many cats do you have in your household?</t>
   </si>
 </sst>
 </file>
@@ -174,7 +192,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -204,8 +222,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,8 +237,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -233,6 +256,7 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -247,6 +271,7 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -576,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -587,10 +612,11 @@
     <col min="1" max="1" width="52.33203125" customWidth="1"/>
     <col min="2" max="2" width="57.6640625" customWidth="1"/>
     <col min="5" max="5" width="40.83203125" customWidth="1"/>
-    <col min="6" max="6" width="77" customWidth="1"/>
+    <col min="6" max="6" width="81.83203125" customWidth="1"/>
+    <col min="7" max="7" width="122.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -601,10 +627,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -617,8 +646,11 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -631,8 +663,9 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -645,8 +678,11 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -659,8 +695,9 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -673,8 +710,11 @@
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -687,8 +727,9 @@
       <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -701,8 +742,11 @@
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -715,8 +759,9 @@
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -725,8 +770,9 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -735,636 +781,742 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
+      <c r="G116" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
